--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="get" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>case_id</t>
   </si>
@@ -66,37 +66,55 @@
     <t>url</t>
   </si>
   <si>
-    <t>添加小米10发布会</t>
+    <t>添加发布会-正常添加</t>
   </si>
   <si>
     <t>/get_event_list/</t>
   </si>
   <si>
-    <t>{"eid":"${not_existed_id}","name":"小米10发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+    <t>{"eid":"${not_existed_id}","name":"小米发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+  </si>
+  <si>
+    <t>{"status":200,"message":"add event success"}</t>
+  </si>
+  <si>
+    <t>{"eid":"${not_existed_id}","name":"华为发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+  </si>
+  <si>
+    <t>{"eid":"${not_existed_id}","name":"三星发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+  </si>
+  <si>
+    <t>添加发布会-ID为空</t>
+  </si>
+  <si>
+    <t>{"eid":"","name":"荣耀发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+  </si>
+  <si>
+    <t>{"status":10021,"message":"parameter error"}</t>
+  </si>
+  <si>
+    <t>添加发布会-ID已存在</t>
+  </si>
+  <si>
+    <t>{"eid":"${invest_user_id}","name":"红米发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+  </si>
+  <si>
+    <t>{"status":10022,"message":"event id already exists"}</t>
+  </si>
+  <si>
+    <t>{"eid":"${not_existed_id}","name":"${not_existed_name}","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
   </si>
   <si>
     <t>add event success</t>
   </si>
   <si>
-    <t>添加小米11发布会</t>
-  </si>
-  <si>
-    <t>添加小米12发布会</t>
-  </si>
-  <si>
-    <t>添加小米13发布会</t>
-  </si>
-  <si>
-    <t>{"eid":"","name":"小米10发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+    <t>{"eid":"","name":"${not_existed_name}","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
   </si>
   <si>
     <t>parameter error</t>
   </si>
   <si>
-    <t>添加小米14发布会</t>
-  </si>
-  <si>
-    <t>{"eid":"${invest_user_id}","name":"小米10发布会","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
+    <t>{"eid":"${invest_user_id}","name":"${not_existed_name}","limit":"500","status":"1","address":"成都","start_time":"2020-5-30 12:00:00"}</t>
   </si>
 </sst>
 </file>
@@ -105,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -124,46 +142,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,28 +168,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,23 +190,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,32 +264,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,17 +489,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,35 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +561,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -588,145 +606,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,9 +1106,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1117,10 +1138,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1137,10 +1158,10 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -1157,10 +1178,10 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
@@ -1177,10 +1198,10 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
@@ -1200,17 +1221,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="111.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="126.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1236,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1246,75 +1267,48 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1324,23 +1318,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1350,8 +1335,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1364,14 +1352,145 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
